--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.5625571603052908</v>
+        <v>9.562557157983596</v>
       </c>
       <c r="C2">
-        <v>12.106946524142334</v>
+        <v>12.106946518993375</v>
       </c>
       <c r="D2">
-        <v>17.176499480665928</v>
+        <v>17.176499471812534</v>
       </c>
       <c r="E2">
-        <v>9.2021687128056158</v>
+        <v>9.2021686988153046</v>
       </c>
       <c r="F2">
-        <v>8.5727621525834756</v>
+        <v>8.5727621546868562</v>
       </c>
       <c r="G2">
-        <v>10.723348125266471</v>
+        <v>10.723348125331723</v>
       </c>
       <c r="H2">
-        <v>15.816735119010414</v>
+        <v>15.816735106223504</v>
       </c>
       <c r="I2">
-        <v>15.517310191561645</v>
+        <v>15.517310193619375</v>
       </c>
       <c r="J2">
-        <v>15.340010724806302</v>
+        <v>15.340010713746945</v>
       </c>
       <c r="K2">
-        <v>14.063111708726289</v>
+        <v>14.063111694250505</v>
       </c>
       <c r="L2">
-        <v>20.02113544418021</v>
+        <v>20.021135426360356</v>
       </c>
       <c r="M2">
-        <v>8.5418174162937284</v>
+        <v>8.5418174145205938</v>
       </c>
       <c r="N2">
-        <v>14.90197215353351</v>
+        <v>14.901972150360789</v>
       </c>
       <c r="O2">
-        <v>10.711959556468894</v>
+        <v>10.711959559265367</v>
       </c>
       <c r="P2">
-        <v>20.373873436954792</v>
+        <v>20.373873422415308</v>
       </c>
       <c r="Q2">
-        <v>14.496197795632513</v>
+        <v>14.496197794448356</v>
       </c>
       <c r="R2">
-        <v>15.412007319145598</v>
+        <v>15.412007316643699</v>
       </c>
       <c r="S2">
-        <v>14.401599933658034</v>
+        <v>14.40159993041183</v>
       </c>
       <c r="T2">
-        <v>16.632750504563173</v>
+        <v>16.632750522996545</v>
       </c>
       <c r="U2">
-        <v>12.952424544275061</v>
+        <v>12.952424542730094</v>
       </c>
       <c r="V2">
-        <v>19.736291233187647</v>
+        <v>19.736291261801256</v>
       </c>
       <c r="W2">
-        <v>19.596785597169838</v>
+        <v>19.596785621133279</v>
       </c>
       <c r="X2">
-        <v>13.935820803729257</v>
+        <v>13.935820809878066</v>
       </c>
       <c r="Y2">
-        <v>9.9504853253008854</v>
+        <v>9.9504853287661081</v>
       </c>
       <c r="Z2">
-        <v>16.203913007294716</v>
+        <v>16.203913010831418</v>
       </c>
       <c r="AA2">
-        <v>11.166840678284409</v>
+        <v>11.166840717609951</v>
       </c>
       <c r="AB2">
-        <v>15.228982574870269</v>
+        <v>15.228982575055346</v>
       </c>
       <c r="AC2">
-        <v>15.737583293737078</v>
+        <v>15.7375833070789</v>
       </c>
       <c r="AD2">
-        <v>9.1623214247777476</v>
+        <v>9.1623214305200431</v>
       </c>
       <c r="AE2">
-        <v>10.991703772456361</v>
+        <v>10.991703774023517</v>
       </c>
       <c r="AF2">
-        <v>14.181346286026599</v>
+        <v>14.181346289019558</v>
       </c>
       <c r="AG2">
-        <v>7.6310523142811544</v>
+        <v>7.6310523540441375</v>
       </c>
       <c r="AH2">
-        <v>15.591735436795512</v>
+        <v>15.591735449961469</v>
       </c>
       <c r="AI2">
-        <v>15.700102058113188</v>
+        <v>15.700102023295745</v>
       </c>
       <c r="AJ2">
-        <v>19.894684852012752</v>
+        <v>19.894684840579231</v>
       </c>
       <c r="AK2">
-        <v>14.54060966477843</v>
+        <v>14.540609661556893</v>
       </c>
       <c r="AL2">
-        <v>7.0060286256820383</v>
+        <v>7.006028645142016</v>
       </c>
       <c r="AM2">
-        <v>15.411627671697337</v>
+        <v>15.411627666745767</v>
       </c>
       <c r="AN2">
-        <v>8.2976607257433255</v>
+        <v>8.2976607373479681</v>
       </c>
       <c r="AO2">
-        <v>20.753285714509339</v>
+        <v>20.753285712817508</v>
       </c>
       <c r="AP2">
-        <v>15.605994513796043</v>
+        <v>15.60599452044965</v>
       </c>
       <c r="AQ2">
-        <v>13.890536606610858</v>
+        <v>13.890536628298698</v>
       </c>
       <c r="AR2">
-        <v>9.9267962418108766</v>
+        <v>9.9267962419811635</v>
       </c>
       <c r="AS2">
-        <v>13.9847774321083</v>
+        <v>13.984777452553757</v>
       </c>
       <c r="AT2">
-        <v>6.6112064438336446</v>
+        <v>6.6112064474116163</v>
       </c>
       <c r="AU2">
-        <v>17.159936104725311</v>
+        <v>17.159936109183327</v>
       </c>
       <c r="AV2">
-        <v>15.505628121755487</v>
+        <v>15.505628136925575</v>
       </c>
       <c r="AW2">
-        <v>18.391065374669829</v>
+        <v>18.391065377045749</v>
       </c>
       <c r="AX2">
-        <v>6.9047938001406166</v>
+        <v>6.9047938352132698</v>
       </c>
       <c r="AY2">
-        <v>15.563650774727833</v>
+        <v>15.563650784310418</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.074268688821469</v>
+        <v>12.074268677776875</v>
       </c>
       <c r="C3">
-        <v>14.624490523273973</v>
+        <v>14.624490505538635</v>
       </c>
       <c r="D3">
-        <v>13.39425446920119</v>
+        <v>13.39425446229696</v>
       </c>
       <c r="E3">
-        <v>4.5646653092580625</v>
+        <v>4.5646653074496006</v>
       </c>
       <c r="F3">
-        <v>16.841025343113227</v>
+        <v>16.841025343990857</v>
       </c>
       <c r="G3">
-        <v>10.584179609922408</v>
+        <v>10.584179606973649</v>
       </c>
       <c r="H3">
-        <v>10.121048394463187</v>
+        <v>10.121048394689806</v>
       </c>
       <c r="I3">
-        <v>11.941790515548078</v>
+        <v>11.941790511920669</v>
       </c>
       <c r="J3">
-        <v>8.8370079923607445</v>
+        <v>8.8370080055999587</v>
       </c>
       <c r="K3">
-        <v>7.5587038408074623</v>
+        <v>7.5587038415309422</v>
       </c>
       <c r="L3">
-        <v>14.023385580370974</v>
+        <v>14.023385587487628</v>
       </c>
       <c r="M3">
-        <v>8.4425719649732613</v>
+        <v>8.4427811067227498</v>
       </c>
       <c r="N3">
-        <v>13.034818005045185</v>
+        <v>13.034818003848427</v>
       </c>
       <c r="O3">
-        <v>13.757845713281236</v>
+        <v>13.757845717906831</v>
       </c>
       <c r="P3">
-        <v>15.572711004741546</v>
+        <v>15.572711010182108</v>
       </c>
       <c r="Q3">
-        <v>14.020353328550588</v>
+        <v>14.020353323115749</v>
       </c>
       <c r="R3">
-        <v>15.463785992771498</v>
+        <v>15.463786012346466</v>
       </c>
       <c r="S3">
-        <v>14.771968153937019</v>
+        <v>14.771968148451103</v>
       </c>
       <c r="T3">
-        <v>15.532206034267553</v>
+        <v>15.532206037952191</v>
       </c>
       <c r="U3">
-        <v>14.426784174294571</v>
+        <v>14.426784181103949</v>
       </c>
       <c r="V3">
-        <v>20.952593427979011</v>
+        <v>20.952593421896601</v>
       </c>
       <c r="W3">
-        <v>19.038410546345176</v>
+        <v>19.038410542383623</v>
       </c>
       <c r="X3">
-        <v>15.416958203689349</v>
+        <v>15.41695820612124</v>
       </c>
       <c r="Y3">
-        <v>10.377922996740221</v>
+        <v>10.377923004875749</v>
       </c>
       <c r="Z3">
-        <v>13.124056250367957</v>
+        <v>13.124056252374487</v>
       </c>
       <c r="AA3">
-        <v>12.847980211534502</v>
+        <v>12.847980159407772</v>
       </c>
       <c r="AB3">
-        <v>7.2866064192780975</v>
+        <v>7.2866063852734841</v>
       </c>
       <c r="AC3">
-        <v>10.039629073805397</v>
+        <v>10.039629082534717</v>
       </c>
       <c r="AD3">
-        <v>7.5712700069964942</v>
+        <v>7.5712700097557279</v>
       </c>
       <c r="AE3">
-        <v>12.588641075523142</v>
+        <v>12.588641084327993</v>
       </c>
       <c r="AF3">
-        <v>8.7324466638332385</v>
+        <v>8.732446651356824</v>
       </c>
       <c r="AG3">
-        <v>15.62987860643941</v>
+        <v>15.629878605345448</v>
       </c>
       <c r="AH3">
-        <v>6.0894345227536713</v>
+        <v>6.0894345018364087</v>
       </c>
       <c r="AI3">
-        <v>5.4716354025730265</v>
+        <v>5.4716354181175317</v>
       </c>
       <c r="AJ3">
-        <v>9.0150254231480282</v>
+        <v>9.0150254265655523</v>
       </c>
       <c r="AK3">
-        <v>8.3634583246665635</v>
+        <v>8.3634583355207326</v>
       </c>
       <c r="AL3">
-        <v>13.519197620690623</v>
+        <v>13.519197621139623</v>
       </c>
       <c r="AM3">
-        <v>11.881139229271865</v>
+        <v>11.881139235523573</v>
       </c>
       <c r="AN3">
-        <v>14.295251024784546</v>
+        <v>14.295251048959924</v>
       </c>
       <c r="AO3">
-        <v>13.410077364855676</v>
+        <v>13.410077348603473</v>
       </c>
       <c r="AP3">
-        <v>12.209088627590468</v>
+        <v>12.209088646239692</v>
       </c>
       <c r="AQ3">
-        <v>17.449071368294682</v>
+        <v>17.449071370705759</v>
       </c>
       <c r="AR3">
-        <v>13.700561109446181</v>
+        <v>13.700561111386971</v>
       </c>
       <c r="AS3">
-        <v>16.849022985091619</v>
+        <v>16.849022988259836</v>
       </c>
       <c r="AT3">
-        <v>13.147062011996706</v>
+        <v>13.147062015400454</v>
       </c>
       <c r="AU3">
-        <v>22.051963621494025</v>
+        <v>22.051963649215381</v>
       </c>
       <c r="AV3">
-        <v>13.814853214496033</v>
+        <v>13.814853221706805</v>
       </c>
       <c r="AW3">
-        <v>9.0405361349586606</v>
+        <v>9.040536141658702</v>
       </c>
       <c r="AX3">
-        <v>19.531441973208317</v>
+        <v>19.53144197126765</v>
       </c>
       <c r="AY3">
-        <v>11.769578633630275</v>
+        <v>11.769578622240982</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.562557157983596</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.106946518993375</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17.176499471812534</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.2021686988153046</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.5727621546868562</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.723348125331723</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>15.816735106223504</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.517310193619375</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.340010713746945</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.063111694250505</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>20.021135426360356</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.5418174145205938</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.901972150360789</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.711959559265367</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.373873422415308</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.496197794448356</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>15.412007316643699</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>14.40159993041183</v>
+        <v>16.577921455559611</v>
       </c>
       <c r="T2">
         <v>16.632750522996545</v>
@@ -588,55 +477,55 @@
         <v>16.203913010831418</v>
       </c>
       <c r="AA2">
-        <v>11.166840717609951</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.228982575055346</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>15.7375833070789</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>9.1623214305200431</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>10.991703774023517</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.181346289019558</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.6310523540441375</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>15.591735449961469</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>15.700102023295745</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>19.894684840579231</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>14.540609661556893</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.006028645142016</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>15.411627666745767</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>8.2976607373479681</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>20.753285712817508</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>15.60599452044965</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>13.890536628298698</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>9.9267962419811635</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>12.074268677776875</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>14.624490505538635</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.39425446229696</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.5646653074496006</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.841025343990857</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.584179606973649</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.121048394689806</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.941790511920669</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.8370080055999587</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.5587038415309422</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.023385587487628</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.4427811067227498</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.034818003848427</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.757845717906831</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15.572711010182108</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.020353323115749</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>15.463786012346466</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.771968148451103</v>
@@ -743,55 +629,55 @@
         <v>13.124056252374487</v>
       </c>
       <c r="AA3">
-        <v>12.847980159407772</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.2866063852734841</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>10.039629082534717</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.5712700097557279</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.588641084327993</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.732446651356824</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>15.629878605345448</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.0894345018364087</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.4716354181175317</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>9.0150254265655523</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>8.3634583355207326</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.519197621139623</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>11.881139235523573</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>14.295251048959924</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>13.410077348603473</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.209088646239692</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>17.449071370705759</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>13.700561111386971</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.5625571603052908</v>
+        <v>10.711959559265367</v>
       </c>
       <c r="C2">
-        <v>12.857151237789834</v>
+        <v>15.412007316643699</v>
       </c>
       <c r="D2">
-        <v>17.176499480665928</v>
+        <v>8.2976607373479681</v>
       </c>
       <c r="E2">
-        <v>9.2021687128056158</v>
+        <v>13.890536628298698</v>
       </c>
       <c r="F2">
         <v>8.5727621525834756</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.074268688821469</v>
+        <v>13.314304289333535</v>
       </c>
       <c r="C3">
-        <v>14.624490523273973</v>
+        <v>15.463786012346466</v>
       </c>
       <c r="D3">
-        <v>13.39425446920119</v>
+        <v>14.297854565260399</v>
       </c>
       <c r="E3">
-        <v>4.5646653092580625</v>
+        <v>15.294903384812345</v>
       </c>
       <c r="F3">
         <v>16.841025343113227</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.5625571603052908</v>
+        <v>15.238634862404243</v>
       </c>
       <c r="C2">
-        <v>12.857151237789834</v>
+        <v>10.711959559265367</v>
       </c>
       <c r="D2">
-        <v>17.176499480665928</v>
+        <v>15.411627666745767</v>
       </c>
       <c r="E2">
-        <v>9.2021687128056158</v>
+        <v>8.2976607373479681</v>
       </c>
       <c r="F2">
         <v>8.5727621525834756</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.074268688821469</v>
+        <v>13.034818003848427</v>
       </c>
       <c r="C3">
-        <v>14.624490523273973</v>
+        <v>13.314304289333535</v>
       </c>
       <c r="D3">
-        <v>13.39425446920119</v>
+        <v>11.881139235523573</v>
       </c>
       <c r="E3">
-        <v>3.8507848751918621</v>
+        <v>14.297854565260399</v>
       </c>
       <c r="F3">
         <v>16.841025343113227</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.562557157983596</v>
+      </c>
+      <c r="C2">
+        <v>12.857151229233512</v>
+      </c>
+      <c r="D2">
+        <v>17.176499471812534</v>
+      </c>
+      <c r="E2">
+        <v>9.2021686988153046</v>
+      </c>
+      <c r="F2">
+        <v>8.5727621546868562</v>
+      </c>
+      <c r="G2">
+        <v>8.8091433660892946</v>
+      </c>
+      <c r="H2">
+        <v>15.816735106223504</v>
+      </c>
+      <c r="I2">
+        <v>14.297035856154302</v>
+      </c>
+      <c r="J2">
+        <v>15.340010713746945</v>
+      </c>
+      <c r="K2">
+        <v>14.063111694250505</v>
+      </c>
+      <c r="L2">
+        <v>19.746362328399314</v>
+      </c>
+      <c r="M2">
+        <v>9.0993887255332577</v>
+      </c>
+      <c r="N2">
         <v>15.238634862404243</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>10.711959559265367</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>20.282336296455721</v>
+      </c>
+      <c r="Q2">
+        <v>14.496197794448356</v>
+      </c>
+      <c r="R2">
+        <v>15.412007316643699</v>
+      </c>
+      <c r="T2">
+        <v>16.727247508006158</v>
+      </c>
+      <c r="U2">
+        <v>12.952424542730094</v>
+      </c>
+      <c r="V2">
+        <v>18.709878380165904</v>
+      </c>
+      <c r="W2">
+        <v>19.596785621133279</v>
+      </c>
+      <c r="X2">
+        <v>13.935820809878066</v>
+      </c>
+      <c r="Y2">
+        <v>9.9504853287661081</v>
+      </c>
+      <c r="Z2">
+        <v>16.203913010831418</v>
+      </c>
+      <c r="AA2">
+        <v>11.166840717609951</v>
+      </c>
+      <c r="AB2">
+        <v>15.228982575055346</v>
+      </c>
+      <c r="AC2">
+        <v>15.7375833070789</v>
+      </c>
+      <c r="AD2">
+        <v>9.1623214305200431</v>
+      </c>
+      <c r="AE2">
+        <v>10.991703774023517</v>
+      </c>
+      <c r="AF2">
+        <v>14.181346289019558</v>
+      </c>
+      <c r="AG2">
+        <v>7.6310523540441375</v>
+      </c>
+      <c r="AH2">
+        <v>15.591735449961469</v>
+      </c>
+      <c r="AI2">
+        <v>15.700102023295745</v>
+      </c>
+      <c r="AJ2">
+        <v>19.894684840579231</v>
+      </c>
+      <c r="AK2">
+        <v>14.540609661556893</v>
+      </c>
+      <c r="AL2">
+        <v>7.006028645142016</v>
+      </c>
+      <c r="AM2">
         <v>15.411627666745767</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>8.2976607373479681</v>
       </c>
-      <c r="F2">
-        <v>8.5727621525834756</v>
-      </c>
-      <c r="G2">
-        <v>8.8091433607322163</v>
-      </c>
-      <c r="H2">
-        <v>15.816735119010414</v>
-      </c>
-      <c r="I2">
-        <v>14.297035854694171</v>
-      </c>
-      <c r="J2">
-        <v>15.340010724806302</v>
-      </c>
-      <c r="K2">
-        <v>14.063111708726289</v>
-      </c>
-      <c r="L2">
-        <v>19.746362350297428</v>
-      </c>
-      <c r="M2">
-        <v>9.0993887299289309</v>
-      </c>
-      <c r="N2">
-        <v>15.238634864611726</v>
-      </c>
-      <c r="O2">
-        <v>10.711959556468894</v>
-      </c>
-      <c r="P2">
-        <v>20.282336311303496</v>
-      </c>
-      <c r="Q2">
-        <v>14.496197795632513</v>
-      </c>
-      <c r="R2">
-        <v>15.412007319145598</v>
-      </c>
-      <c r="T2">
-        <v>16.727247487786872</v>
-      </c>
-      <c r="U2">
-        <v>12.952424544275061</v>
-      </c>
-      <c r="V2">
-        <v>18.709878341525524</v>
-      </c>
-      <c r="W2">
-        <v>19.596785597169838</v>
-      </c>
-      <c r="X2">
-        <v>13.935820803729257</v>
-      </c>
-      <c r="Y2">
-        <v>9.9504853253008854</v>
-      </c>
-      <c r="Z2">
-        <v>16.203913007294716</v>
-      </c>
-      <c r="AA2">
-        <v>11.166840678284409</v>
-      </c>
-      <c r="AB2">
-        <v>15.228982574870269</v>
-      </c>
-      <c r="AC2">
-        <v>15.737583293737078</v>
-      </c>
-      <c r="AD2">
-        <v>9.1623214247777476</v>
-      </c>
-      <c r="AE2">
-        <v>10.991703772456361</v>
-      </c>
-      <c r="AF2">
-        <v>14.181346286026599</v>
-      </c>
-      <c r="AG2">
-        <v>7.6310523142811544</v>
-      </c>
-      <c r="AH2">
-        <v>15.591735436795512</v>
-      </c>
-      <c r="AI2">
-        <v>15.700102058113188</v>
-      </c>
-      <c r="AJ2">
-        <v>19.894684852012752</v>
-      </c>
-      <c r="AK2">
-        <v>14.54060966477843</v>
-      </c>
-      <c r="AL2">
-        <v>7.0060286256820383</v>
-      </c>
-      <c r="AM2">
-        <v>15.411627671697337</v>
-      </c>
-      <c r="AN2">
-        <v>8.2976607257433255</v>
-      </c>
       <c r="AO2">
-        <v>20.753285714509339</v>
+        <v>20.753285712817508</v>
       </c>
       <c r="AP2">
-        <v>15.309284207321912</v>
+        <v>15.30928420858328</v>
       </c>
       <c r="AQ2">
-        <v>13.890536606610858</v>
+        <v>13.890536628298698</v>
       </c>
       <c r="AR2">
-        <v>9.9267962418108766</v>
+        <v>9.9267962419811635</v>
       </c>
       <c r="AS2">
-        <v>13.9847774321083</v>
+        <v>13.984777452553757</v>
       </c>
       <c r="AT2">
-        <v>6.6112064438336446</v>
+        <v>6.6112064474116163</v>
       </c>
       <c r="AU2">
-        <v>20.086213138793177</v>
+        <v>20.086213160331599</v>
       </c>
       <c r="AV2">
-        <v>15.505628121755487</v>
+        <v>15.505628136925575</v>
       </c>
       <c r="AW2">
-        <v>18.391065374669829</v>
+        <v>18.391065377045749</v>
       </c>
       <c r="AX2">
-        <v>6.9047938001406166</v>
+        <v>6.9047938352132698</v>
       </c>
       <c r="AY2">
-        <v>15.563650774727833</v>
+        <v>15.563650784310418</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>12.074268677776875</v>
+      </c>
+      <c r="C3">
+        <v>14.624490505538635</v>
+      </c>
+      <c r="D3">
+        <v>13.39425446229696</v>
+      </c>
+      <c r="E3">
+        <v>3.8507848752478959</v>
+      </c>
+      <c r="F3">
+        <v>16.841025343990857</v>
+      </c>
+      <c r="G3">
+        <v>10.584179606973649</v>
+      </c>
+      <c r="H3">
+        <v>10.121048394689806</v>
+      </c>
+      <c r="I3">
+        <v>11.941790511920669</v>
+      </c>
+      <c r="J3">
+        <v>8.8370080055999587</v>
+      </c>
+      <c r="K3">
+        <v>8.2489694867633521</v>
+      </c>
+      <c r="L3">
+        <v>14.023385587487628</v>
+      </c>
+      <c r="M3">
+        <v>9.8864328065958258</v>
+      </c>
+      <c r="N3">
         <v>13.034818003848427</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>13.314304289333535</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>15.572711010182108</v>
+      </c>
+      <c r="Q3">
+        <v>14.020353323115749</v>
+      </c>
+      <c r="R3">
+        <v>15.463786012346466</v>
+      </c>
+      <c r="S3">
+        <v>14.771968148451103</v>
+      </c>
+      <c r="T3">
+        <v>15.532206037952191</v>
+      </c>
+      <c r="U3">
+        <v>14.426784181103949</v>
+      </c>
+      <c r="V3">
+        <v>20.657712582993849</v>
+      </c>
+      <c r="W3">
+        <v>19.038410542383623</v>
+      </c>
+      <c r="X3">
+        <v>15.41695820612124</v>
+      </c>
+      <c r="Y3">
+        <v>10.377923004875749</v>
+      </c>
+      <c r="Z3">
+        <v>13.124056252374487</v>
+      </c>
+      <c r="AA3">
+        <v>12.847980159407772</v>
+      </c>
+      <c r="AB3">
+        <v>7.2866063852734841</v>
+      </c>
+      <c r="AC3">
+        <v>10.039629082534717</v>
+      </c>
+      <c r="AD3">
+        <v>7.5712700097557279</v>
+      </c>
+      <c r="AE3">
+        <v>12.588641084327993</v>
+      </c>
+      <c r="AF3">
+        <v>8.732446651356824</v>
+      </c>
+      <c r="AG3">
+        <v>15.629878605345448</v>
+      </c>
+      <c r="AH3">
+        <v>6.0894345018364087</v>
+      </c>
+      <c r="AI3">
+        <v>9.0287207777167389</v>
+      </c>
+      <c r="AJ3">
+        <v>9.0150254265655523</v>
+      </c>
+      <c r="AK3">
+        <v>8.3634583355207326</v>
+      </c>
+      <c r="AL3">
+        <v>13.519197621139623</v>
+      </c>
+      <c r="AM3">
         <v>11.881139235523573</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>14.297854565260399</v>
       </c>
-      <c r="F3">
-        <v>16.841025343113227</v>
-      </c>
-      <c r="G3">
-        <v>10.584179609922408</v>
-      </c>
-      <c r="H3">
-        <v>10.121048394463187</v>
-      </c>
-      <c r="I3">
-        <v>11.941790515548078</v>
-      </c>
-      <c r="J3">
-        <v>8.8370079923607445</v>
-      </c>
-      <c r="K3">
-        <v>8.2489694845313828</v>
-      </c>
-      <c r="L3">
-        <v>14.023385580370974</v>
-      </c>
-      <c r="M3">
-        <v>9.886165102428988</v>
-      </c>
-      <c r="N3">
-        <v>13.034818005045185</v>
-      </c>
-      <c r="O3">
-        <v>13.314304278920275</v>
-      </c>
-      <c r="P3">
-        <v>15.572711004741546</v>
-      </c>
-      <c r="Q3">
-        <v>14.020353328550588</v>
-      </c>
-      <c r="R3">
-        <v>15.463785992771498</v>
-      </c>
-      <c r="S3">
-        <v>14.771968153937019</v>
-      </c>
-      <c r="T3">
-        <v>15.532206034267553</v>
-      </c>
-      <c r="U3">
-        <v>14.426784174294571</v>
-      </c>
-      <c r="V3">
-        <v>20.657712585398141</v>
-      </c>
-      <c r="W3">
-        <v>19.038410546345176</v>
-      </c>
-      <c r="X3">
-        <v>15.416958203689349</v>
-      </c>
-      <c r="Y3">
-        <v>10.377922996740221</v>
-      </c>
-      <c r="Z3">
-        <v>13.124056250367957</v>
-      </c>
-      <c r="AA3">
-        <v>12.847980211534502</v>
-      </c>
-      <c r="AB3">
-        <v>7.2866064192780975</v>
-      </c>
-      <c r="AC3">
-        <v>10.039629073805397</v>
-      </c>
-      <c r="AD3">
-        <v>7.5712700069964942</v>
-      </c>
-      <c r="AE3">
-        <v>12.588641075523142</v>
-      </c>
-      <c r="AF3">
-        <v>8.7324466638332385</v>
-      </c>
-      <c r="AG3">
-        <v>15.62987860643941</v>
-      </c>
-      <c r="AH3">
-        <v>6.0894345227536713</v>
-      </c>
-      <c r="AI3">
-        <v>9.0287207972519248</v>
-      </c>
-      <c r="AJ3">
-        <v>9.0150254231480282</v>
-      </c>
-      <c r="AK3">
-        <v>8.3634583246665635</v>
-      </c>
-      <c r="AL3">
-        <v>13.519197620690623</v>
-      </c>
-      <c r="AM3">
-        <v>11.881139229271865</v>
-      </c>
-      <c r="AN3">
-        <v>14.297854533772375</v>
-      </c>
       <c r="AO3">
-        <v>13.410077364855676</v>
+        <v>13.410077348603473</v>
       </c>
       <c r="AP3">
-        <v>12.209088627590468</v>
+        <v>12.209088646239692</v>
       </c>
       <c r="AQ3">
-        <v>15.294903396245337</v>
+        <v>15.294903384812345</v>
       </c>
       <c r="AR3">
-        <v>13.700561109446181</v>
+        <v>13.700561111386971</v>
       </c>
       <c r="AS3">
-        <v>16.849022985091619</v>
+        <v>16.849022988259836</v>
       </c>
       <c r="AT3">
-        <v>13.147062011996706</v>
+        <v>13.147062015400454</v>
       </c>
       <c r="AU3">
-        <v>20.738368394783382</v>
+        <v>20.738368423211476</v>
       </c>
       <c r="AV3">
-        <v>13.814853214496033</v>
+        <v>13.814853221706805</v>
       </c>
       <c r="AW3">
-        <v>9.0405361349586606</v>
+        <v>9.040536141658702</v>
       </c>
       <c r="AX3">
-        <v>19.531441973208317</v>
+        <v>19.53144197126765</v>
       </c>
       <c r="AY3">
-        <v>11.769578633630275</v>
+        <v>11.769578622240982</v>
       </c>
     </row>
   </sheetData>
